--- a/bigcode-evaluation-harness/result/qwen2.5-coder-0.5b-base.xlsx
+++ b/bigcode-evaluation-harness/result/qwen2.5-coder-0.5b-base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3740458015267176</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.3206106870229007</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="16">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>164</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0.121</v>
       </c>
     </row>
     <row r="17">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3924050632911392</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.2911392405063291</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
         <v>164</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.298780487804878</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="19">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="20">
@@ -1098,65 +1098,89 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_code_expression_exchange_instruct</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>mbpp_generate_cpp_robust_code_stmt_exchange</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>34</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_code_stmt_exchange</t>
+          <t>mbpp_generate_cpp_robust_code_style</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.544</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.54</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.125</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_code_stmt_exchange_instruct</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>mbpp_generate_cpp_robust_combined_perturbation</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>59</v>
+      </c>
+      <c r="D29" t="n">
+        <v>492</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5487804878048781</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4532520325203252</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.174</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_code_style</t>
+          <t>mbpp_generate_cpp_robust_insert</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D30" t="n">
         <v>500</v>
@@ -1165,770 +1189,486 @@
         <v>0.544</v>
       </c>
       <c r="F30" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="G30" t="n">
-        <v>0.007</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_code_style_instruct</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>mbpp_generate_cpp_robust_rename</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>35</v>
+      </c>
+      <c r="D31" t="n">
+        <v>499</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5450901803607214</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.081</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_combined_perturbation</t>
+          <t>mbpp_generate_java_robust_code_expression_exchange</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D32" t="n">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5487804878048781</v>
+        <v>0.6474820143884892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4532520325203252</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="G32" t="n">
-        <v>0.174</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_insert</t>
+          <t>mbpp_generate_java_robust_code_stmt_exchange</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D33" t="n">
-        <v>500</v>
+        <v>188</v>
       </c>
       <c r="E33" t="n">
-        <v>0.544</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="F33" t="n">
-        <v>0.47</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="G33" t="n">
-        <v>0.136</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_insert_instruct</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>mbpp_generate_java_robust_code_style</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>500</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.013</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_rename</t>
+          <t>mbpp_generate_java_robust_combined_perturbation</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="D35" t="n">
         <v>499</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5450901803607214</v>
+        <v>0.6392785571142284</v>
       </c>
       <c r="F35" t="n">
-        <v>0.501002004008016</v>
+        <v>0.3787575150300601</v>
       </c>
       <c r="G35" t="n">
-        <v>0.081</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_rename_instruct</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>mbpp_generate_java_robust_insert</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25</v>
+      </c>
+      <c r="D36" t="n">
+        <v>500</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.041</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_expression_exchange</t>
+          <t>mbpp_generate_java_robust_rename</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="D37" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6474820143884892</v>
+        <v>0.638</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3956834532374101</v>
+        <v>0.53</v>
       </c>
       <c r="G37" t="n">
-        <v>0.389</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_expression_exchange_instruct</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>mbpp_generate_javascript_robust_code_expression_exchange</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>24</v>
+      </c>
+      <c r="D38" t="n">
+        <v>279</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5089605734767025</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4408602150537634</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.134</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_stmt_exchange</t>
+          <t>mbpp_generate_javascript_robust_code_stmt_exchange</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6276595744680851</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="G39" t="n">
-        <v>0.593</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_stmt_exchange_instruct</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>mbpp_generate_javascript_robust_code_style</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>500</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.004</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_style</t>
+          <t>mbpp_generate_javascript_robust_combined_perturbation</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D41" t="n">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E41" t="n">
-        <v>0.638</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="F41" t="n">
-        <v>0.646</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.013</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_style_instruct</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+          <t>mbpp_generate_javascript_robust_insert</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>103</v>
+      </c>
+      <c r="D42" t="n">
+        <v>500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.374</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_combined_perturbation</t>
+          <t>mbpp_generate_javascript_robust_rename</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="D43" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6392785571142284</v>
+        <v>0.486</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3787575150300601</v>
+        <v>0.442</v>
       </c>
       <c r="G43" t="n">
-        <v>0.408</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_insert</t>
+          <t>mbpp_generate_python_robust_code_expression_exchange</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D44" t="n">
-        <v>500</v>
+        <v>219</v>
       </c>
       <c r="E44" t="n">
-        <v>0.638</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="F44" t="n">
-        <v>0.612</v>
+        <v>0.4155251141552511</v>
       </c>
       <c r="G44" t="n">
-        <v>0.041</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_insert_instruct</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+          <t>mbpp_generate_python_robust_code_stmt_exchange</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_rename</t>
+          <t>mbpp_generate_python_robust_code_style</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
         <v>500</v>
       </c>
       <c r="E46" t="n">
-        <v>0.638</v>
+        <v>0.53</v>
       </c>
       <c r="F46" t="n">
-        <v>0.53</v>
+        <v>0.498</v>
       </c>
       <c r="G46" t="n">
-        <v>0.169</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_rename_instruct</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+          <t>mbpp_generate_python_robust_combined_perturbation</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>93</v>
+      </c>
+      <c r="D47" t="n">
+        <v>500</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.328</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_code_expression_exchange</t>
+          <t>mbpp_generate_python_robust_insert</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D48" t="n">
-        <v>279</v>
+        <v>500</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5089605734767025</v>
+        <v>0.53</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4408602150537634</v>
+        <v>0.392</v>
       </c>
       <c r="G48" t="n">
-        <v>0.134</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_code_expression_exchange_instruct</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_code_stmt_exchange</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>71</v>
-      </c>
-      <c r="D50" t="n">
-        <v>178</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.4943820224719101</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.101123595505618</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.795</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_code_stmt_exchange_instruct</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_code_style</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>8</v>
-      </c>
-      <c r="C52" t="n">
-        <v>9</v>
-      </c>
-      <c r="D52" t="n">
+          <t>mbpp_generate_python_robust_rename</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n">
+        <v>77</v>
+      </c>
+      <c r="D49" t="n">
         <v>500</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_code_style_instruct</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_combined_perturbation</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>12</v>
-      </c>
-      <c r="C54" t="n">
-        <v>88</v>
-      </c>
-      <c r="D54" t="n">
-        <v>488</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.4836065573770492</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.3278688524590164</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.322</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_insert</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>103</v>
-      </c>
-      <c r="D55" t="n">
-        <v>500</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_insert_instruct</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_rename</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>16</v>
-      </c>
-      <c r="C57" t="n">
-        <v>38</v>
-      </c>
-      <c r="D57" t="n">
-        <v>500</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>mbpp_generate_javascript_robust_rename_instruct</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_code_expression_exchange</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>21</v>
-      </c>
-      <c r="D59" t="n">
-        <v>219</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.4794520547945205</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.4155251141552511</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.133</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_code_expression_exchange_instruct</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_code_stmt_exchange</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>10</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_code_stmt_exchange_instruct</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_code_style</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>8</v>
-      </c>
-      <c r="C63" t="n">
-        <v>24</v>
-      </c>
-      <c r="D63" t="n">
-        <v>500</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="E49" t="n">
         <v>0.53</v>
       </c>
-      <c r="F63" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_code_style_instruct</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_combined_perturbation</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>6</v>
-      </c>
-      <c r="C65" t="n">
-        <v>93</v>
-      </c>
-      <c r="D65" t="n">
-        <v>500</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.328</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_insert</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>13</v>
-      </c>
-      <c r="C66" t="n">
-        <v>82</v>
-      </c>
-      <c r="D66" t="n">
-        <v>500</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_insert_instruct</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_rename</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>16</v>
-      </c>
-      <c r="C68" t="n">
-        <v>77</v>
-      </c>
-      <c r="D68" t="n">
-        <v>500</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="F49" t="n">
         <v>0.408</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G49" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>mbpp_generate_python_robust_rename_instruct</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
